--- a/Raj Chudasama/2022-12-10/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-10-22.xlsx
+++ b/Raj Chudasama/2022-12-10/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-10-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="120">
   <si>
     <t>Guest Name</t>
   </si>
@@ -259,18 +259,21 @@
     <t>PE1184</t>
   </si>
   <si>
+    <t>121.90</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>113.98</t>
+  </si>
+  <si>
     <t>63.00</t>
   </si>
   <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>119.00</t>
-  </si>
-  <si>
-    <t>113.98</t>
-  </si>
-  <si>
     <t>GKGGKGB</t>
   </si>
   <si>
@@ -325,15 +328,9 @@
     <t>11-Dec-21</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10-Dec-22</t>
-  </si>
-  <si>
     <t>16-Jul-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19-Nov-22</t>
-  </si>
-  <si>
     <t>19-Nov-22</t>
   </si>
   <si>
@@ -343,7 +340,7 @@
     <t>12-Nov-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08-Dec-22</t>
+    <t>08-Dec-22</t>
   </si>
   <si>
     <t>22-Sep-22</t>
@@ -352,7 +349,7 @@
     <t>18-Nov-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05-Aug-22</t>
+    <t>05-Aug-22</t>
   </si>
   <si>
     <t>06-Aug-22</t>
@@ -780,16 +777,16 @@
         <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -806,16 +803,16 @@
         <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -832,16 +829,16 @@
         <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -855,16 +852,16 @@
         <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -878,16 +875,16 @@
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -901,16 +898,16 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -924,16 +921,16 @@
         <v>121.9</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -950,16 +947,16 @@
         <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -976,16 +973,16 @@
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
         <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1002,16 +999,16 @@
         <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1028,16 +1025,16 @@
         <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1054,16 +1051,16 @@
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
         <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1080,16 +1077,16 @@
         <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1103,16 +1100,16 @@
         <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1129,16 +1126,16 @@
         <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1155,16 +1152,16 @@
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1181,16 +1178,16 @@
         <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1207,16 +1204,16 @@
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1230,16 +1227,16 @@
         <v>103.49</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1256,16 +1253,16 @@
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1279,16 +1276,16 @@
         <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1305,16 +1302,16 @@
         <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1331,16 +1328,16 @@
         <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1357,16 +1354,16 @@
         <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1380,16 +1377,16 @@
         <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1403,16 +1400,16 @@
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1429,16 +1426,16 @@
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1455,16 +1452,16 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1481,16 +1478,16 @@
         <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1507,16 +1504,16 @@
         <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1533,16 +1530,16 @@
         <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1556,16 +1553,16 @@
         <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1582,16 +1579,16 @@
         <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1608,16 +1605,16 @@
         <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1634,16 +1631,16 @@
         <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1657,16 +1654,16 @@
         <v>139.44</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1683,16 +1680,16 @@
         <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1709,16 +1706,16 @@
         <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1735,16 +1732,16 @@
         <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1761,16 +1758,16 @@
         <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1784,16 +1781,16 @@
         <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1807,16 +1804,16 @@
         <v>48.45</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1830,16 +1827,16 @@
         <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1856,16 +1853,16 @@
         <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1879,19 +1876,19 @@
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1908,16 +1905,16 @@
         <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1934,16 +1931,16 @@
         <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1960,16 +1957,16 @@
         <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1986,16 +1983,16 @@
         <v>119</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2012,16 +2009,16 @@
         <v>119</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2038,16 +2035,16 @@
         <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2064,16 +2061,16 @@
         <v>119</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2090,16 +2087,16 @@
         <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2116,16 +2113,16 @@
         <v>119</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2142,16 +2139,16 @@
         <v>119</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2168,16 +2165,16 @@
         <v>119</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2194,16 +2191,16 @@
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2220,16 +2217,16 @@
         <v>119</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2246,16 +2243,16 @@
         <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2272,16 +2269,16 @@
         <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2298,16 +2295,16 @@
         <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2324,16 +2321,16 @@
         <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2350,16 +2347,16 @@
         <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2373,16 +2370,16 @@
         <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2399,16 +2396,16 @@
         <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2425,16 +2422,16 @@
         <v>79</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2451,16 +2448,16 @@
         <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2477,16 +2474,16 @@
         <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2500,16 +2497,16 @@
         <v>135.15</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2526,16 +2523,16 @@
         <v>119</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2552,16 +2549,16 @@
         <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2578,16 +2575,16 @@
         <v>119</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2604,16 +2601,16 @@
         <v>119</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2630,16 +2627,16 @@
         <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2656,16 +2653,16 @@
         <v>119</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2682,16 +2679,16 @@
         <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
